--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Vcan-Selp.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Vcan-Selp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7481976483760761</v>
+        <v>3.444734333333333</v>
       </c>
       <c r="H2">
-        <v>0.7481976483760761</v>
+        <v>10.334203</v>
       </c>
       <c r="I2">
-        <v>0.004097140916971185</v>
+        <v>0.01213700884209764</v>
       </c>
       <c r="J2">
-        <v>0.004097140916971185</v>
+        <v>0.01213700884209764</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.46407048654187</v>
+        <v>21.110155</v>
       </c>
       <c r="N2">
-        <v>5.46407048654187</v>
+        <v>63.330465</v>
       </c>
       <c r="O2">
-        <v>0.3748993737432033</v>
+        <v>0.6828970503646842</v>
       </c>
       <c r="P2">
-        <v>0.3748993737432033</v>
+        <v>0.6828970503646841</v>
       </c>
       <c r="Q2">
-        <v>4.088204688591749</v>
+        <v>72.71887571048832</v>
       </c>
       <c r="R2">
-        <v>4.088204688591749</v>
+        <v>654.4698813943949</v>
       </c>
       <c r="S2">
-        <v>0.001536015563910151</v>
+        <v>0.00828832753851857</v>
       </c>
       <c r="T2">
-        <v>0.001536015563910151</v>
+        <v>0.008288327538518568</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7481976483760761</v>
+        <v>3.444734333333333</v>
       </c>
       <c r="H3">
-        <v>0.7481976483760761</v>
+        <v>10.334203</v>
       </c>
       <c r="I3">
-        <v>0.004097140916971185</v>
+        <v>0.01213700884209764</v>
       </c>
       <c r="J3">
-        <v>0.004097140916971185</v>
+        <v>0.01213700884209764</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>9.11069508851247</v>
+        <v>0.3162533333333333</v>
       </c>
       <c r="N3">
-        <v>9.11069508851247</v>
+        <v>0.94876</v>
       </c>
       <c r="O3">
-        <v>0.6251006262567967</v>
+        <v>0.01023054868622862</v>
       </c>
       <c r="P3">
-        <v>0.6251006262567967</v>
+        <v>0.01023054868622862</v>
       </c>
       <c r="Q3">
-        <v>6.816600640296496</v>
+        <v>1.089408715364444</v>
       </c>
       <c r="R3">
-        <v>6.816600640296496</v>
+        <v>9.80467843828</v>
       </c>
       <c r="S3">
-        <v>0.002561125353061034</v>
+        <v>0.0001241682598642672</v>
       </c>
       <c r="T3">
-        <v>0.002561125353061034</v>
+        <v>0.0001241682598642672</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>152.565397034209</v>
+        <v>3.444734333333333</v>
       </c>
       <c r="H4">
-        <v>152.565397034209</v>
+        <v>10.334203</v>
       </c>
       <c r="I4">
-        <v>0.8354502744823105</v>
+        <v>0.01213700884209764</v>
       </c>
       <c r="J4">
-        <v>0.8354502744823105</v>
+        <v>0.01213700884209764</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>5.46407048654187</v>
+        <v>0.131037</v>
       </c>
       <c r="N4">
-        <v>5.46407048654187</v>
+        <v>0.393111</v>
       </c>
       <c r="O4">
-        <v>0.3748993737432033</v>
+        <v>0.004238944753775475</v>
       </c>
       <c r="P4">
-        <v>0.3748993737432033</v>
+        <v>0.004238944753775475</v>
       </c>
       <c r="Q4">
-        <v>833.628083202164</v>
+        <v>0.4513876528369999</v>
       </c>
       <c r="R4">
-        <v>833.628083202164</v>
+        <v>4.062488875532999</v>
       </c>
       <c r="S4">
-        <v>0.3132097846970055</v>
+        <v>5.144810995773635E-05</v>
       </c>
       <c r="T4">
-        <v>0.3132097846970055</v>
+        <v>5.144810995773634E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -723,57 +723,57 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>152.565397034209</v>
+        <v>3.444734333333333</v>
       </c>
       <c r="H5">
-        <v>152.565397034209</v>
+        <v>10.334203</v>
       </c>
       <c r="I5">
-        <v>0.8354502744823105</v>
+        <v>0.01213700884209764</v>
       </c>
       <c r="J5">
-        <v>0.8354502744823105</v>
+        <v>0.01213700884209764</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.11069508851247</v>
+        <v>9.283255666666667</v>
       </c>
       <c r="N5">
-        <v>9.11069508851247</v>
+        <v>27.849767</v>
       </c>
       <c r="O5">
-        <v>0.6251006262567967</v>
+        <v>0.3003060807724011</v>
       </c>
       <c r="P5">
-        <v>0.6251006262567967</v>
+        <v>0.3003060807724011</v>
       </c>
       <c r="Q5">
-        <v>1389.976813436523</v>
+        <v>31.97834952007789</v>
       </c>
       <c r="R5">
-        <v>1389.976813436523</v>
+        <v>287.8051456807009</v>
       </c>
       <c r="S5">
-        <v>0.522240489785305</v>
+        <v>0.003644817557670321</v>
       </c>
       <c r="T5">
-        <v>0.522240489785305</v>
+        <v>0.003644817557670319</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.51967510111432</v>
+        <v>3.444734333333333</v>
       </c>
       <c r="H6">
-        <v>4.51967510111432</v>
+        <v>10.334203</v>
       </c>
       <c r="I6">
-        <v>0.02474980485221139</v>
+        <v>0.01213700884209764</v>
       </c>
       <c r="J6">
-        <v>0.02474980485221139</v>
+        <v>0.01213700884209764</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>5.46407048654187</v>
+        <v>0.07194533333333333</v>
       </c>
       <c r="N6">
-        <v>5.46407048654187</v>
+        <v>0.215836</v>
       </c>
       <c r="O6">
-        <v>0.3748993737432033</v>
+        <v>0.00232737542291079</v>
       </c>
       <c r="P6">
-        <v>0.3748993737432033</v>
+        <v>0.00232737542291079</v>
       </c>
       <c r="Q6">
-        <v>24.6958233287569</v>
+        <v>0.2478325598564444</v>
       </c>
       <c r="R6">
-        <v>24.6958233287569</v>
+        <v>2.230493038708</v>
       </c>
       <c r="S6">
-        <v>0.009278686339360543</v>
+        <v>2.824737608674899E-05</v>
       </c>
       <c r="T6">
-        <v>0.009278686339360543</v>
+        <v>2.824737608674899E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.51967510111432</v>
+        <v>153.3769176666667</v>
       </c>
       <c r="H7">
-        <v>4.51967510111432</v>
+        <v>460.130753</v>
       </c>
       <c r="I7">
-        <v>0.02474980485221139</v>
+        <v>0.5404007466934845</v>
       </c>
       <c r="J7">
-        <v>0.02474980485221139</v>
+        <v>0.5404007466934844</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.11069508851247</v>
+        <v>21.110155</v>
       </c>
       <c r="N7">
-        <v>9.11069508851247</v>
+        <v>63.330465</v>
       </c>
       <c r="O7">
-        <v>0.6251006262567967</v>
+        <v>0.6828970503646842</v>
       </c>
       <c r="P7">
-        <v>0.6251006262567967</v>
+        <v>0.6828970503646841</v>
       </c>
       <c r="Q7">
-        <v>41.17738174539434</v>
+        <v>3237.810505365572</v>
       </c>
       <c r="R7">
-        <v>41.17738174539434</v>
+        <v>29140.29454829015</v>
       </c>
       <c r="S7">
-        <v>0.01547111851285084</v>
+        <v>0.3690380759318534</v>
       </c>
       <c r="T7">
-        <v>0.01547111851285084</v>
+        <v>0.3690380759318533</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,184 +906,184 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.75936384138981</v>
+        <v>153.3769176666667</v>
       </c>
       <c r="H8">
-        <v>3.75936384138981</v>
+        <v>460.130753</v>
       </c>
       <c r="I8">
-        <v>0.02058632962796768</v>
+        <v>0.5404007466934845</v>
       </c>
       <c r="J8">
-        <v>0.02058632962796768</v>
+        <v>0.5404007466934844</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>5.46407048654187</v>
+        <v>0.3162533333333333</v>
       </c>
       <c r="N8">
-        <v>5.46407048654187</v>
+        <v>0.94876</v>
       </c>
       <c r="O8">
-        <v>0.3748993737432033</v>
+        <v>0.01023054868622862</v>
       </c>
       <c r="P8">
-        <v>0.3748993737432033</v>
+        <v>0.01023054868622862</v>
       </c>
       <c r="Q8">
-        <v>20.54142901391073</v>
+        <v>48.50596146847556</v>
       </c>
       <c r="R8">
-        <v>20.54142901391073</v>
+        <v>436.5536532162801</v>
       </c>
       <c r="S8">
-        <v>0.007717802085196236</v>
+        <v>0.005528596149121994</v>
       </c>
       <c r="T8">
-        <v>0.007717802085196236</v>
+        <v>0.005528596149121993</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.75936384138981</v>
+        <v>153.3769176666667</v>
       </c>
       <c r="H9">
-        <v>3.75936384138981</v>
+        <v>460.130753</v>
       </c>
       <c r="I9">
-        <v>0.02058632962796768</v>
+        <v>0.5404007466934845</v>
       </c>
       <c r="J9">
-        <v>0.02058632962796768</v>
+        <v>0.5404007466934844</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>9.11069508851247</v>
+        <v>0.131037</v>
       </c>
       <c r="N9">
-        <v>9.11069508851247</v>
+        <v>0.393111</v>
       </c>
       <c r="O9">
-        <v>0.6251006262567967</v>
+        <v>0.004238944753775475</v>
       </c>
       <c r="P9">
-        <v>0.6251006262567967</v>
+        <v>0.004238944753775475</v>
       </c>
       <c r="Q9">
-        <v>34.25041768568151</v>
+        <v>20.098051160287</v>
       </c>
       <c r="R9">
-        <v>34.25041768568151</v>
+        <v>180.882460442583</v>
       </c>
       <c r="S9">
-        <v>0.01286852754277145</v>
+        <v>0.002290728910132695</v>
       </c>
       <c r="T9">
-        <v>0.01286852754277145</v>
+        <v>0.002290728910132695</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.98049372341085</v>
+        <v>153.3769176666667</v>
       </c>
       <c r="H10">
-        <v>6.98049372341085</v>
+        <v>460.130753</v>
       </c>
       <c r="I10">
-        <v>0.03822528247304984</v>
+        <v>0.5404007466934845</v>
       </c>
       <c r="J10">
-        <v>0.03822528247304984</v>
+        <v>0.5404007466934844</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.46407048654187</v>
+        <v>9.283255666666667</v>
       </c>
       <c r="N10">
-        <v>5.46407048654187</v>
+        <v>27.849767</v>
       </c>
       <c r="O10">
-        <v>0.3748993737432033</v>
+        <v>0.3003060807724011</v>
       </c>
       <c r="P10">
-        <v>0.3748993737432033</v>
+        <v>0.3003060807724011</v>
       </c>
       <c r="Q10">
-        <v>38.14190973558</v>
+        <v>1423.83714006495</v>
       </c>
       <c r="R10">
-        <v>38.14190973558</v>
+        <v>12814.53426058455</v>
       </c>
       <c r="S10">
-        <v>0.01433063446030343</v>
+        <v>0.1622856302859994</v>
       </c>
       <c r="T10">
-        <v>0.01433063446030343</v>
+        <v>0.1622856302859994</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.98049372341085</v>
+        <v>153.3769176666667</v>
       </c>
       <c r="H11">
-        <v>6.98049372341085</v>
+        <v>460.130753</v>
       </c>
       <c r="I11">
-        <v>0.03822528247304984</v>
+        <v>0.5404007466934845</v>
       </c>
       <c r="J11">
-        <v>0.03822528247304984</v>
+        <v>0.5404007466934844</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>9.11069508851247</v>
+        <v>0.07194533333333333</v>
       </c>
       <c r="N11">
-        <v>9.11069508851247</v>
+        <v>0.215836</v>
       </c>
       <c r="O11">
-        <v>0.6251006262567967</v>
+        <v>0.00232737542291079</v>
       </c>
       <c r="P11">
-        <v>0.6251006262567967</v>
+        <v>0.00232737542291079</v>
       </c>
       <c r="Q11">
-        <v>63.59714988127136</v>
+        <v>11.03475346716756</v>
       </c>
       <c r="R11">
-        <v>63.59714988127136</v>
+        <v>99.312781204508</v>
       </c>
       <c r="S11">
-        <v>0.02389464801274641</v>
+        <v>0.001257715416377055</v>
       </c>
       <c r="T11">
-        <v>0.02389464801274641</v>
+        <v>0.001257715416377055</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,114 +1157,1230 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>14.041447921999</v>
+        <v>91.68981500000001</v>
       </c>
       <c r="H12">
-        <v>14.041447921999</v>
+        <v>275.069445</v>
       </c>
       <c r="I12">
-        <v>0.07689116764748929</v>
+        <v>0.3230554195767096</v>
       </c>
       <c r="J12">
-        <v>0.07689116764748929</v>
+        <v>0.3230554195767096</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.46407048654187</v>
+        <v>21.110155</v>
       </c>
       <c r="N12">
-        <v>5.46407048654187</v>
+        <v>63.330465</v>
       </c>
       <c r="O12">
-        <v>0.3748993737432033</v>
+        <v>0.6828970503646842</v>
       </c>
       <c r="P12">
-        <v>0.3748993737432033</v>
+        <v>0.6828970503646841</v>
       </c>
       <c r="Q12">
-        <v>76.7234611789094</v>
+        <v>1935.586206571325</v>
       </c>
       <c r="R12">
-        <v>76.7234611789094</v>
+        <v>17420.27585914193</v>
       </c>
       <c r="S12">
-        <v>0.02882645059742739</v>
+        <v>0.2206135931332605</v>
       </c>
       <c r="T12">
-        <v>0.02882645059742739</v>
+        <v>0.2206135931332604</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>91.68981500000001</v>
+      </c>
+      <c r="H13">
+        <v>275.069445</v>
+      </c>
+      <c r="I13">
+        <v>0.3230554195767096</v>
+      </c>
+      <c r="J13">
+        <v>0.3230554195767096</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.3162533333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.94876</v>
+      </c>
+      <c r="O13">
+        <v>0.01023054868622862</v>
+      </c>
+      <c r="P13">
+        <v>0.01023054868622862</v>
+      </c>
+      <c r="Q13">
+        <v>28.99720962646667</v>
+      </c>
+      <c r="R13">
+        <v>260.9748866382</v>
+      </c>
+      <c r="S13">
+        <v>0.003305034198329543</v>
+      </c>
+      <c r="T13">
+        <v>0.003305034198329542</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>91.68981500000001</v>
+      </c>
+      <c r="H14">
+        <v>275.069445</v>
+      </c>
+      <c r="I14">
+        <v>0.3230554195767096</v>
+      </c>
+      <c r="J14">
+        <v>0.3230554195767096</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.131037</v>
+      </c>
+      <c r="N14">
+        <v>0.393111</v>
+      </c>
+      <c r="O14">
+        <v>0.004238944753775475</v>
+      </c>
+      <c r="P14">
+        <v>0.004238944753775475</v>
+      </c>
+      <c r="Q14">
+        <v>12.014758288155</v>
+      </c>
+      <c r="R14">
+        <v>108.132824593395</v>
+      </c>
+      <c r="S14">
+        <v>0.001369414075993428</v>
+      </c>
+      <c r="T14">
+        <v>0.001369414075993428</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>91.68981500000001</v>
+      </c>
+      <c r="H15">
+        <v>275.069445</v>
+      </c>
+      <c r="I15">
+        <v>0.3230554195767096</v>
+      </c>
+      <c r="J15">
+        <v>0.3230554195767096</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>9.283255666666667</v>
+      </c>
+      <c r="N15">
+        <v>27.849767</v>
+      </c>
+      <c r="O15">
+        <v>0.3003060807724011</v>
+      </c>
+      <c r="P15">
+        <v>0.3003060807724011</v>
+      </c>
+      <c r="Q15">
+        <v>851.1799946743685</v>
+      </c>
+      <c r="R15">
+        <v>7660.619952069316</v>
+      </c>
+      <c r="S15">
+        <v>0.0970155069253653</v>
+      </c>
+      <c r="T15">
+        <v>0.09701550692536526</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>91.68981500000001</v>
+      </c>
+      <c r="H16">
+        <v>275.069445</v>
+      </c>
+      <c r="I16">
+        <v>0.3230554195767096</v>
+      </c>
+      <c r="J16">
+        <v>0.3230554195767096</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.07194533333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.215836</v>
+      </c>
+      <c r="O16">
+        <v>0.00232737542291079</v>
+      </c>
+      <c r="P16">
+        <v>0.00232737542291079</v>
+      </c>
+      <c r="Q16">
+        <v>6.596654303446668</v>
+      </c>
+      <c r="R16">
+        <v>59.36988873102</v>
+      </c>
+      <c r="S16">
+        <v>0.0007518712437609672</v>
+      </c>
+      <c r="T16">
+        <v>0.0007518712437609671</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>8.359539333333334</v>
+      </c>
+      <c r="H17">
+        <v>25.078618</v>
+      </c>
+      <c r="I17">
+        <v>0.02945359292957465</v>
+      </c>
+      <c r="J17">
+        <v>0.02945359292957464</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>21.110155</v>
+      </c>
+      <c r="N17">
+        <v>63.330465</v>
+      </c>
+      <c r="O17">
+        <v>0.6828970503646842</v>
+      </c>
+      <c r="P17">
+        <v>0.6828970503646841</v>
+      </c>
+      <c r="Q17">
+        <v>176.4711710552633</v>
+      </c>
+      <c r="R17">
+        <v>1588.24053949737</v>
+      </c>
+      <c r="S17">
+        <v>0.02011377173424864</v>
+      </c>
+      <c r="T17">
+        <v>0.02011377173424864</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>8.359539333333334</v>
+      </c>
+      <c r="H18">
+        <v>25.078618</v>
+      </c>
+      <c r="I18">
+        <v>0.02945359292957465</v>
+      </c>
+      <c r="J18">
+        <v>0.02945359292957464</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.3162533333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.94876</v>
+      </c>
+      <c r="O18">
+        <v>0.01023054868622862</v>
+      </c>
+      <c r="P18">
+        <v>0.01023054868622862</v>
+      </c>
+      <c r="Q18">
+        <v>2.643732179297778</v>
+      </c>
+      <c r="R18">
+        <v>23.79358961368</v>
+      </c>
+      <c r="S18">
+        <v>0.0003013264164503726</v>
+      </c>
+      <c r="T18">
+        <v>0.0003013264164503725</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>8.359539333333334</v>
+      </c>
+      <c r="H19">
+        <v>25.078618</v>
+      </c>
+      <c r="I19">
+        <v>0.02945359292957465</v>
+      </c>
+      <c r="J19">
+        <v>0.02945359292957464</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.131037</v>
+      </c>
+      <c r="N19">
+        <v>0.393111</v>
+      </c>
+      <c r="O19">
+        <v>0.004238944753775475</v>
+      </c>
+      <c r="P19">
+        <v>0.004238944753775475</v>
+      </c>
+      <c r="Q19">
+        <v>1.095408955622</v>
+      </c>
+      <c r="R19">
+        <v>9.858680600598001</v>
+      </c>
+      <c r="S19">
+        <v>0.0001248521532286589</v>
+      </c>
+      <c r="T19">
+        <v>0.0001248521532286588</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
         <v>24</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>14.041447921999</v>
-      </c>
-      <c r="H13">
-        <v>14.041447921999</v>
-      </c>
-      <c r="I13">
-        <v>0.07689116764748929</v>
-      </c>
-      <c r="J13">
-        <v>0.07689116764748929</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>9.11069508851247</v>
-      </c>
-      <c r="N13">
-        <v>9.11069508851247</v>
-      </c>
-      <c r="O13">
-        <v>0.6251006262567967</v>
-      </c>
-      <c r="P13">
-        <v>0.6251006262567967</v>
-      </c>
-      <c r="Q13">
-        <v>127.9273506185599</v>
-      </c>
-      <c r="R13">
-        <v>127.9273506185599</v>
-      </c>
-      <c r="S13">
-        <v>0.04806471705006191</v>
-      </c>
-      <c r="T13">
-        <v>0.04806471705006191</v>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>8.359539333333334</v>
+      </c>
+      <c r="H20">
+        <v>25.078618</v>
+      </c>
+      <c r="I20">
+        <v>0.02945359292957465</v>
+      </c>
+      <c r="J20">
+        <v>0.02945359292957464</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>9.283255666666667</v>
+      </c>
+      <c r="N20">
+        <v>27.849767</v>
+      </c>
+      <c r="O20">
+        <v>0.3003060807724011</v>
+      </c>
+      <c r="P20">
+        <v>0.3003060807724011</v>
+      </c>
+      <c r="Q20">
+        <v>77.60374088688957</v>
+      </c>
+      <c r="R20">
+        <v>698.4336679820061</v>
+      </c>
+      <c r="S20">
+        <v>0.008845093057346267</v>
+      </c>
+      <c r="T20">
+        <v>0.008845093057346263</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>8.359539333333334</v>
+      </c>
+      <c r="H21">
+        <v>25.078618</v>
+      </c>
+      <c r="I21">
+        <v>0.02945359292957465</v>
+      </c>
+      <c r="J21">
+        <v>0.02945359292957464</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.07194533333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.215836</v>
+      </c>
+      <c r="O21">
+        <v>0.00232737542291079</v>
+      </c>
+      <c r="P21">
+        <v>0.00232737542291079</v>
+      </c>
+      <c r="Q21">
+        <v>0.6014298438497778</v>
+      </c>
+      <c r="R21">
+        <v>5.412868594648001</v>
+      </c>
+      <c r="S21">
+        <v>6.854956830071104E-05</v>
+      </c>
+      <c r="T21">
+        <v>6.854956830071104E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>8.759714000000001</v>
+      </c>
+      <c r="H22">
+        <v>26.279142</v>
+      </c>
+      <c r="I22">
+        <v>0.03086354882101112</v>
+      </c>
+      <c r="J22">
+        <v>0.03086354882101111</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>21.110155</v>
+      </c>
+      <c r="N22">
+        <v>63.330465</v>
+      </c>
+      <c r="O22">
+        <v>0.6828970503646842</v>
+      </c>
+      <c r="P22">
+        <v>0.6828970503646841</v>
+      </c>
+      <c r="Q22">
+        <v>184.91892029567</v>
+      </c>
+      <c r="R22">
+        <v>1664.27028266103</v>
+      </c>
+      <c r="S22">
+        <v>0.02107662645365492</v>
+      </c>
+      <c r="T22">
+        <v>0.02107662645365491</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>8.759714000000001</v>
+      </c>
+      <c r="H23">
+        <v>26.279142</v>
+      </c>
+      <c r="I23">
+        <v>0.03086354882101112</v>
+      </c>
+      <c r="J23">
+        <v>0.03086354882101111</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.3162533333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.94876</v>
+      </c>
+      <c r="O23">
+        <v>0.01023054868622862</v>
+      </c>
+      <c r="P23">
+        <v>0.01023054868622862</v>
+      </c>
+      <c r="Q23">
+        <v>2.770288751546667</v>
+      </c>
+      <c r="R23">
+        <v>24.93259876392</v>
+      </c>
+      <c r="S23">
+        <v>0.0003157510388431483</v>
+      </c>
+      <c r="T23">
+        <v>0.0003157510388431481</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>8.759714000000001</v>
+      </c>
+      <c r="H24">
+        <v>26.279142</v>
+      </c>
+      <c r="I24">
+        <v>0.03086354882101112</v>
+      </c>
+      <c r="J24">
+        <v>0.03086354882101111</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.131037</v>
+      </c>
+      <c r="N24">
+        <v>0.393111</v>
+      </c>
+      <c r="O24">
+        <v>0.004238944753775475</v>
+      </c>
+      <c r="P24">
+        <v>0.004238944753775475</v>
+      </c>
+      <c r="Q24">
+        <v>1.147846643418</v>
+      </c>
+      <c r="R24">
+        <v>10.330619790762</v>
+      </c>
+      <c r="S24">
+        <v>0.0001308288783577183</v>
+      </c>
+      <c r="T24">
+        <v>0.0001308288783577183</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>8.759714000000001</v>
+      </c>
+      <c r="H25">
+        <v>26.279142</v>
+      </c>
+      <c r="I25">
+        <v>0.03086354882101112</v>
+      </c>
+      <c r="J25">
+        <v>0.03086354882101111</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>9.283255666666667</v>
+      </c>
+      <c r="N25">
+        <v>27.849767</v>
+      </c>
+      <c r="O25">
+        <v>0.3003060807724011</v>
+      </c>
+      <c r="P25">
+        <v>0.3003060807724011</v>
+      </c>
+      <c r="Q25">
+        <v>81.31866462887935</v>
+      </c>
+      <c r="R25">
+        <v>731.867981659914</v>
+      </c>
+      <c r="S25">
+        <v>0.009268511385165511</v>
+      </c>
+      <c r="T25">
+        <v>0.009268511385165506</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>8.759714000000001</v>
+      </c>
+      <c r="H26">
+        <v>26.279142</v>
+      </c>
+      <c r="I26">
+        <v>0.03086354882101112</v>
+      </c>
+      <c r="J26">
+        <v>0.03086354882101111</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.07194533333333333</v>
+      </c>
+      <c r="N26">
+        <v>0.215836</v>
+      </c>
+      <c r="O26">
+        <v>0.00232737542291079</v>
+      </c>
+      <c r="P26">
+        <v>0.00232737542291079</v>
+      </c>
+      <c r="Q26">
+        <v>0.6302205436346667</v>
+      </c>
+      <c r="R26">
+        <v>5.671984892712</v>
+      </c>
+      <c r="S26">
+        <v>7.183106498982855E-05</v>
+      </c>
+      <c r="T26">
+        <v>7.183106498982854E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>18.18997866666666</v>
+      </c>
+      <c r="H27">
+        <v>54.569936</v>
+      </c>
+      <c r="I27">
+        <v>0.06408968313712265</v>
+      </c>
+      <c r="J27">
+        <v>0.06408968313712265</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>21.110155</v>
+      </c>
+      <c r="N27">
+        <v>63.330465</v>
+      </c>
+      <c r="O27">
+        <v>0.6828970503646842</v>
+      </c>
+      <c r="P27">
+        <v>0.6828970503646841</v>
+      </c>
+      <c r="Q27">
+        <v>383.9932691000266</v>
+      </c>
+      <c r="R27">
+        <v>3455.93942190024</v>
+      </c>
+      <c r="S27">
+        <v>0.0437666555731483</v>
+      </c>
+      <c r="T27">
+        <v>0.04376665557314829</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>18.18997866666666</v>
+      </c>
+      <c r="H28">
+        <v>54.569936</v>
+      </c>
+      <c r="I28">
+        <v>0.06408968313712265</v>
+      </c>
+      <c r="J28">
+        <v>0.06408968313712265</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.3162533333333333</v>
+      </c>
+      <c r="N28">
+        <v>0.94876</v>
+      </c>
+      <c r="O28">
+        <v>0.01023054868622862</v>
+      </c>
+      <c r="P28">
+        <v>0.01023054868622862</v>
+      </c>
+      <c r="Q28">
+        <v>5.752641386595555</v>
+      </c>
+      <c r="R28">
+        <v>51.77377247936</v>
+      </c>
+      <c r="S28">
+        <v>0.0006556726236192989</v>
+      </c>
+      <c r="T28">
+        <v>0.0006556726236192988</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>18.18997866666666</v>
+      </c>
+      <c r="H29">
+        <v>54.569936</v>
+      </c>
+      <c r="I29">
+        <v>0.06408968313712265</v>
+      </c>
+      <c r="J29">
+        <v>0.06408968313712265</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.131037</v>
+      </c>
+      <c r="N29">
+        <v>0.393111</v>
+      </c>
+      <c r="O29">
+        <v>0.004238944753775475</v>
+      </c>
+      <c r="P29">
+        <v>0.004238944753775475</v>
+      </c>
+      <c r="Q29">
+        <v>2.383560234543999</v>
+      </c>
+      <c r="R29">
+        <v>21.452042110896</v>
+      </c>
+      <c r="S29">
+        <v>0.0002716726261052386</v>
+      </c>
+      <c r="T29">
+        <v>0.0002716726261052386</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>18.18997866666666</v>
+      </c>
+      <c r="H30">
+        <v>54.569936</v>
+      </c>
+      <c r="I30">
+        <v>0.06408968313712265</v>
+      </c>
+      <c r="J30">
+        <v>0.06408968313712265</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>9.283255666666667</v>
+      </c>
+      <c r="N30">
+        <v>27.849767</v>
+      </c>
+      <c r="O30">
+        <v>0.3003060807724011</v>
+      </c>
+      <c r="P30">
+        <v>0.3003060807724011</v>
+      </c>
+      <c r="Q30">
+        <v>168.8622225338791</v>
+      </c>
+      <c r="R30">
+        <v>1519.760002804912</v>
+      </c>
+      <c r="S30">
+        <v>0.01924652156085435</v>
+      </c>
+      <c r="T30">
+        <v>0.01924652156085434</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>18.18997866666666</v>
+      </c>
+      <c r="H31">
+        <v>54.569936</v>
+      </c>
+      <c r="I31">
+        <v>0.06408968313712265</v>
+      </c>
+      <c r="J31">
+        <v>0.06408968313712265</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M31">
+        <v>0.07194533333333333</v>
+      </c>
+      <c r="N31">
+        <v>0.215836</v>
+      </c>
+      <c r="O31">
+        <v>0.00232737542291079</v>
+      </c>
+      <c r="P31">
+        <v>0.00232737542291079</v>
+      </c>
+      <c r="Q31">
+        <v>1.308684078499555</v>
+      </c>
+      <c r="R31">
+        <v>11.778156706496</v>
+      </c>
+      <c r="S31">
+        <v>0.0001491607533954793</v>
+      </c>
+      <c r="T31">
+        <v>0.0001491607533954793</v>
       </c>
     </row>
   </sheetData>
